--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H100_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5495495495495496</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5508982035928144</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9945652173913043</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5479041916167665</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7079303675048357</v>
+        <v>0.7104247104247104</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5119760479041916</v>
+        <v>0.4820359281437126</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08842193691321293</v>
+        <v>0.1001249615996197</v>
       </c>
       <c r="J2" t="n">
-        <v>1133.864065429927</v>
+        <v>1318.057811234282</v>
       </c>
       <c r="K2" t="n">
-        <v>1765129.825879599</v>
+        <v>2359526.179565881</v>
       </c>
       <c r="L2" t="n">
-        <v>1328.58188527452</v>
+        <v>1536.074926416638</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6726793935814038</v>
+        <v>0.5624562405367579</v>
       </c>
     </row>
   </sheetData>
